--- a/mAjustesInventario/bak_Libro1.xlsx
+++ b/mAjustesInventario/bak_Libro1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Acosta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BE4290A-1F43-4177-B7C8-5349CE7C5DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46E5E016-BCB9-47B8-A73D-5F2F57F34748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F7C1BD2-84C8-4141-A741-F2C43D4702A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B00C620A-F570-4F86-9371-98495BAC2CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,135 +36,723 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>1104</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>016000490987</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>0281</t>
+  </si>
+  <si>
+    <t>033383007410</t>
+  </si>
+  <si>
+    <t>034587090758</t>
+  </si>
+  <si>
+    <t>037102678264</t>
+  </si>
+  <si>
+    <t>038629001436</t>
+  </si>
+  <si>
+    <t>038629003829</t>
+  </si>
+  <si>
+    <t>0399</t>
+  </si>
+  <si>
+    <t>0408</t>
+  </si>
+  <si>
+    <t>0467</t>
+  </si>
+  <si>
+    <t>0469</t>
+  </si>
+  <si>
+    <t>0475</t>
+  </si>
+  <si>
+    <t>0485</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>0502</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>0504</t>
+  </si>
+  <si>
+    <t>0510</t>
+  </si>
+  <si>
+    <t>0511</t>
+  </si>
+  <si>
+    <t>0513</t>
+  </si>
+  <si>
+    <t>0515</t>
+  </si>
+  <si>
+    <t>0517</t>
+  </si>
+  <si>
+    <t>0518</t>
+  </si>
+  <si>
+    <t>0527</t>
+  </si>
+  <si>
+    <t>0531</t>
+  </si>
+  <si>
+    <t>0542</t>
+  </si>
+  <si>
+    <t>0549</t>
+  </si>
+  <si>
+    <t>0552</t>
+  </si>
+  <si>
+    <t>0560</t>
+  </si>
+  <si>
+    <t>0562</t>
+  </si>
+  <si>
+    <t>0575</t>
+  </si>
+  <si>
+    <t>0576</t>
+  </si>
+  <si>
+    <t>058897091366</t>
+  </si>
+  <si>
+    <t>0702</t>
+  </si>
+  <si>
+    <t>0704</t>
+  </si>
+  <si>
+    <t>0708</t>
+  </si>
+  <si>
+    <t>0709</t>
+  </si>
+  <si>
+    <t>0725</t>
+  </si>
+  <si>
+    <t>0781718689120</t>
+  </si>
+  <si>
+    <t>078917103770</t>
+  </si>
+  <si>
+    <t>078917172578</t>
+  </si>
+  <si>
+    <t>078917174275</t>
+  </si>
+  <si>
+    <t>078917192514</t>
+  </si>
+  <si>
+    <t>0917</t>
+  </si>
+  <si>
+    <t>0979</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1011</t>
   </si>
   <si>
     <t>1013</t>
   </si>
   <si>
-    <t>0708</t>
-  </si>
-  <si>
-    <t>7501020515398</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>0576</t>
-  </si>
-  <si>
-    <t>7501005113373</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>0709</t>
-  </si>
-  <si>
-    <t>0575</t>
-  </si>
-  <si>
-    <t>105519</t>
-  </si>
-  <si>
-    <t>7501100662356</t>
-  </si>
-  <si>
-    <t>7501140700476</t>
-  </si>
-  <si>
-    <t>759684272103</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>522</t>
-  </si>
-  <si>
-    <t>744607588904</t>
-  </si>
-  <si>
-    <t>7501041417251</t>
-  </si>
-  <si>
-    <t>7506245103764</t>
-  </si>
-  <si>
-    <t>840004022123</t>
-  </si>
-  <si>
-    <t>9786079614737</t>
-  </si>
-  <si>
-    <t>1193</t>
-  </si>
-  <si>
-    <t>0530</t>
-  </si>
-  <si>
-    <t>0784208373394</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>608875005108</t>
-  </si>
-  <si>
-    <t>744607840903</t>
-  </si>
-  <si>
-    <t>7500462583552</t>
-  </si>
-  <si>
-    <t>7500464050601</t>
-  </si>
-  <si>
-    <t>7501024203284</t>
-  </si>
-  <si>
-    <t>7501060407578</t>
-  </si>
-  <si>
-    <t>7501060408339</t>
-  </si>
-  <si>
-    <t>7501157605832</t>
-  </si>
-  <si>
-    <t>7501214972242</t>
-  </si>
-  <si>
-    <t>7501217500886</t>
-  </si>
-  <si>
-    <t>7503022687370</t>
-  </si>
-  <si>
-    <t>7503025399126</t>
-  </si>
-  <si>
-    <t>7506086644808</t>
-  </si>
-  <si>
-    <t>759684272318</t>
-  </si>
-  <si>
-    <t>759684431050</t>
-  </si>
-  <si>
-    <t>770806</t>
-  </si>
-  <si>
-    <t>770807</t>
-  </si>
-  <si>
-    <t>8801056074289</t>
+    <t>102424</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>112502</t>
+  </si>
+  <si>
+    <t>112505</t>
+  </si>
+  <si>
+    <t>112507</t>
+  </si>
+  <si>
+    <t>112509</t>
+  </si>
+  <si>
+    <t>112513</t>
+  </si>
+  <si>
+    <t>112515</t>
+  </si>
+  <si>
+    <t>112528</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>1151</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>2083</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>3107</t>
+  </si>
+  <si>
+    <t>3109</t>
+  </si>
+  <si>
+    <t>3110</t>
+  </si>
+  <si>
+    <t>3123</t>
+  </si>
+  <si>
+    <t>3129</t>
+  </si>
+  <si>
+    <t>3147</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>3174</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>4151</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>4264</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>4854</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>619585800013</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>706460238815</t>
+  </si>
+  <si>
+    <t>744831158058</t>
+  </si>
+  <si>
+    <t>7500435160933</t>
+  </si>
+  <si>
+    <t>7500478007981</t>
+  </si>
+  <si>
+    <t>7501003300478</t>
+  </si>
+  <si>
+    <t>7501005111133</t>
+  </si>
+  <si>
+    <t>7501008041291</t>
+  </si>
+  <si>
+    <t>7501011167650</t>
+  </si>
+  <si>
+    <t>7501013100143</t>
+  </si>
+  <si>
+    <t>7501013101171</t>
+  </si>
+  <si>
+    <t>7501013610024</t>
+  </si>
+  <si>
+    <t>7501017006915</t>
+  </si>
+  <si>
+    <t>7501018316044</t>
+  </si>
+  <si>
+    <t>7501019035876</t>
+  </si>
+  <si>
+    <t>7501021121208</t>
+  </si>
+  <si>
+    <t>7501024577057</t>
+  </si>
+  <si>
+    <t>7501024579327</t>
+  </si>
+  <si>
+    <t>7501040017841</t>
+  </si>
+  <si>
+    <t>7501040091278</t>
+  </si>
+  <si>
+    <t>7501040095535</t>
+  </si>
+  <si>
+    <t>7501041417282</t>
+  </si>
+  <si>
+    <t>7501041418388</t>
+  </si>
+  <si>
+    <t>7501041419088</t>
+  </si>
+  <si>
+    <t>7501058626684</t>
+  </si>
+  <si>
+    <t>7501064196836</t>
+  </si>
+  <si>
+    <t>7501199413297</t>
+  </si>
+  <si>
+    <t>7501199415772</t>
+  </si>
+  <si>
+    <t>7501199418780</t>
+  </si>
+  <si>
+    <t>7501200483110</t>
+  </si>
+  <si>
+    <t>7501209708047</t>
+  </si>
+  <si>
+    <t>7501361123009</t>
+  </si>
+  <si>
+    <t>7501864101368</t>
+  </si>
+  <si>
+    <t>7501943444942</t>
+  </si>
+  <si>
+    <t>7501943444966</t>
+  </si>
+  <si>
+    <t>7501943458451</t>
+  </si>
+  <si>
+    <t>7501943494244</t>
+  </si>
+  <si>
+    <t>7502004718378</t>
+  </si>
+  <si>
+    <t>7502006943648</t>
+  </si>
+  <si>
+    <t>7503004097067</t>
+  </si>
+  <si>
+    <t>7503014162038</t>
+  </si>
+  <si>
+    <t>7503014279712</t>
+  </si>
+  <si>
+    <t>7503023836142</t>
+  </si>
+  <si>
+    <t>75043025</t>
+  </si>
+  <si>
+    <t>7506306215580</t>
+  </si>
+  <si>
+    <t>7506306307872</t>
+  </si>
+  <si>
+    <t>7506425622016</t>
+  </si>
+  <si>
+    <t>7506500516995</t>
+  </si>
+  <si>
+    <t>75075392</t>
+  </si>
+  <si>
+    <t>7509546074665</t>
+  </si>
+  <si>
+    <t>7509546682471</t>
+  </si>
+  <si>
+    <t>7622210265999</t>
+  </si>
+  <si>
+    <t>7804320256900</t>
+  </si>
+  <si>
+    <t>7891112156845</t>
+  </si>
+  <si>
+    <t>78928503</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>849</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>922</t>
+  </si>
+  <si>
+    <t>923</t>
+  </si>
+  <si>
+    <t>924</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>935</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>941</t>
+  </si>
+  <si>
+    <t>942</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>946</t>
+  </si>
+  <si>
+    <t>948</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>950001</t>
+  </si>
+  <si>
+    <t>950002</t>
+  </si>
+  <si>
+    <t>950005</t>
+  </si>
+  <si>
+    <t>950006</t>
+  </si>
+  <si>
+    <t>950010</t>
+  </si>
+  <si>
+    <t>950011</t>
+  </si>
+  <si>
+    <t>950012</t>
+  </si>
+  <si>
+    <t>950014</t>
+  </si>
+  <si>
+    <t>950015</t>
+  </si>
+  <si>
+    <t>950017</t>
+  </si>
+  <si>
+    <t>950021</t>
+  </si>
+  <si>
+    <t>950022</t>
+  </si>
+  <si>
+    <t>950023</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>953132</t>
+  </si>
+  <si>
+    <t>954</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>975</t>
+  </si>
+  <si>
+    <t>976</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>978</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>981</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>985</t>
+  </si>
+  <si>
+    <t>986</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>988</t>
+  </si>
+  <si>
+    <t>997</t>
+  </si>
+  <si>
+    <t>O85</t>
   </si>
 </sst>
 </file>
@@ -513,8 +1104,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9439444-EF98-445E-9A89-71D1D2575F33}">
-  <dimension ref="A1:B43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85122B09-2282-40E9-A228-DE60D4157F39}">
+  <dimension ref="A1:B239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -527,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -535,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -543,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -551,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -559,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -567,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -575,7 +1166,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -583,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -599,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -607,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -615,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -631,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -639,7 +1230,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -655,7 +1246,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -663,7 +1254,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -671,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -687,7 +1278,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -695,7 +1286,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -703,7 +1294,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -711,7 +1302,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -719,7 +1310,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -727,7 +1318,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -735,7 +1326,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -743,7 +1334,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -751,7 +1342,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -759,7 +1350,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -767,7 +1358,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -775,7 +1366,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -783,7 +1374,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -791,7 +1382,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -799,7 +1390,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -807,7 +1398,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -815,7 +1406,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -823,7 +1414,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -831,7 +1422,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -839,7 +1430,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -847,7 +1438,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -855,7 +1446,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -863,6 +1454,1574 @@
         <v>42</v>
       </c>
       <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239">
         <v>1</v>
       </c>
     </row>
